--- a/data/pca/factorExposure/factorExposure_2018-02-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-02-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.007778888268222047</v>
+        <v>-0.009512017046039552</v>
       </c>
       <c r="C2">
-        <v>0.01991240957599436</v>
+        <v>0.02212573981508657</v>
       </c>
       <c r="D2">
-        <v>-0.02069234954563169</v>
+        <v>-0.02518180716120079</v>
       </c>
       <c r="E2">
-        <v>-0.02315390497911945</v>
+        <v>-0.0189556372735422</v>
       </c>
       <c r="F2">
-        <v>-0.07740580031847701</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.008973251261888169</v>
+      </c>
+      <c r="G2">
+        <v>0.005752451265942371</v>
+      </c>
+      <c r="H2">
+        <v>0.02840977172160512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.09394082816598946</v>
+        <v>-0.05719612531261945</v>
       </c>
       <c r="C3">
-        <v>0.02742845104226865</v>
+        <v>0.073721179995655</v>
       </c>
       <c r="D3">
-        <v>0.01885698511707858</v>
+        <v>-0.007880192674768333</v>
       </c>
       <c r="E3">
-        <v>-0.1079449406074062</v>
+        <v>-0.06038122293955627</v>
       </c>
       <c r="F3">
-        <v>-0.2984075808908909</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.04524585205996502</v>
+      </c>
+      <c r="G3">
+        <v>0.04145895511053432</v>
+      </c>
+      <c r="H3">
+        <v>0.1120791797412389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04125108471355338</v>
+        <v>-0.03483037377944014</v>
       </c>
       <c r="C4">
-        <v>-8.636657830358015e-05</v>
+        <v>0.06556846422523777</v>
       </c>
       <c r="D4">
-        <v>-0.02827044765137966</v>
+        <v>-0.01951665074083572</v>
       </c>
       <c r="E4">
-        <v>0.02059715864614735</v>
+        <v>0.009122999262666159</v>
       </c>
       <c r="F4">
-        <v>-0.06510427609140422</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.02197918097173036</v>
+      </c>
+      <c r="G4">
+        <v>0.04615576522829622</v>
+      </c>
+      <c r="H4">
+        <v>0.03236084175429487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03937778804392557</v>
+        <v>-0.01742725261201614</v>
       </c>
       <c r="C6">
-        <v>0.009876032679364113</v>
+        <v>0.06008349867650842</v>
       </c>
       <c r="D6">
-        <v>-0.03830766023302409</v>
+        <v>-0.01425141438438978</v>
       </c>
       <c r="E6">
-        <v>0.02463505549749585</v>
+        <v>0.01204401600925686</v>
       </c>
       <c r="F6">
-        <v>-0.03564951743594186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.0002787149338755513</v>
+      </c>
+      <c r="G6">
+        <v>0.0284291186213293</v>
+      </c>
+      <c r="H6">
+        <v>0.03410004300034358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03968244789435814</v>
+        <v>-0.003749038567721021</v>
       </c>
       <c r="C7">
-        <v>-0.03750281284998276</v>
+        <v>0.03590909943881927</v>
       </c>
       <c r="D7">
-        <v>-0.01521654242072243</v>
+        <v>-0.01174622224403539</v>
       </c>
       <c r="E7">
-        <v>0.007834107670253592</v>
+        <v>0.0202794007357637</v>
       </c>
       <c r="F7">
-        <v>-0.04074109029102058</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.0485450392198896</v>
+      </c>
+      <c r="G7">
+        <v>0.005063570208370813</v>
+      </c>
+      <c r="H7">
+        <v>0.01812293723002576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009580083035321662</v>
+        <v>0.005551007822420791</v>
       </c>
       <c r="C8">
-        <v>-0.00969326073118767</v>
+        <v>0.004380920330279451</v>
       </c>
       <c r="D8">
-        <v>-0.02844505197842702</v>
+        <v>-0.001939159125347771</v>
       </c>
       <c r="E8">
-        <v>0.01509850827906833</v>
+        <v>-0.0009356935809527249</v>
       </c>
       <c r="F8">
-        <v>-0.06427898229596223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02021251037747302</v>
+      </c>
+      <c r="G8">
+        <v>0.01746270740224947</v>
+      </c>
+      <c r="H8">
+        <v>0.01756148158422311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03570049218640736</v>
+        <v>-0.0167692751464853</v>
       </c>
       <c r="C9">
-        <v>-0.0007931083722805667</v>
+        <v>0.04640497042926109</v>
       </c>
       <c r="D9">
-        <v>-0.02783425879856973</v>
+        <v>-0.01376817312987805</v>
       </c>
       <c r="E9">
-        <v>-0.009342247886923281</v>
+        <v>0.00677871130991232</v>
       </c>
       <c r="F9">
-        <v>-0.06887892446269857</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01792202711219342</v>
+      </c>
+      <c r="G9">
+        <v>0.01411788077084937</v>
+      </c>
+      <c r="H9">
+        <v>0.03522866102863442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05412359751692884</v>
+        <v>-0.1292473894039615</v>
       </c>
       <c r="C10">
-        <v>0.02045938681332113</v>
+        <v>-0.1492114336018645</v>
       </c>
       <c r="D10">
-        <v>0.1518429613198323</v>
+        <v>0.02266226212807976</v>
       </c>
       <c r="E10">
-        <v>-0.08056095289116676</v>
+        <v>-0.03403183552709558</v>
       </c>
       <c r="F10">
-        <v>-0.01798867249194513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.02983610143915447</v>
+      </c>
+      <c r="G10">
+        <v>-0.02857418570850078</v>
+      </c>
+      <c r="H10">
+        <v>-0.002187060478706925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02890971814451449</v>
+        <v>-0.01384194517923856</v>
       </c>
       <c r="C11">
-        <v>0.01294811341025683</v>
+        <v>0.0482359456453701</v>
       </c>
       <c r="D11">
-        <v>-0.03935054493113468</v>
+        <v>-0.0001121873509254867</v>
       </c>
       <c r="E11">
-        <v>0.02181505247283956</v>
+        <v>0.01034112391302341</v>
       </c>
       <c r="F11">
-        <v>-0.02745995246825073</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.003295731789236504</v>
+      </c>
+      <c r="G11">
+        <v>0.01286766437889657</v>
+      </c>
+      <c r="H11">
+        <v>0.03571786996035438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03941601571919102</v>
+        <v>-0.01813149556656436</v>
       </c>
       <c r="C12">
-        <v>0.01047060443570717</v>
+        <v>0.04515559932997656</v>
       </c>
       <c r="D12">
-        <v>-0.03468564453619297</v>
+        <v>-0.003978354458978847</v>
       </c>
       <c r="E12">
-        <v>0.03201292053651137</v>
+        <v>0.01854818375897097</v>
       </c>
       <c r="F12">
-        <v>-0.006695445405585263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.005917308920625417</v>
+      </c>
+      <c r="G12">
+        <v>0.006678690439878641</v>
+      </c>
+      <c r="H12">
+        <v>0.01385671195978496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01251410118249144</v>
+        <v>-0.0119555578203262</v>
       </c>
       <c r="C13">
-        <v>0.01788108953697037</v>
+        <v>0.02287049715642358</v>
       </c>
       <c r="D13">
-        <v>-0.005357571016989929</v>
+        <v>-0.02161364256959966</v>
       </c>
       <c r="E13">
-        <v>-0.00980530628881874</v>
+        <v>-0.01598674972949416</v>
       </c>
       <c r="F13">
-        <v>-0.06768372536524229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.002438603424630943</v>
+      </c>
+      <c r="G13">
+        <v>0.0308740338306936</v>
+      </c>
+      <c r="H13">
+        <v>0.04973998026370413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02406280485230511</v>
+        <v>-0.0035479565150019</v>
       </c>
       <c r="C14">
-        <v>-0.009015644190454211</v>
+        <v>0.0183239795445136</v>
       </c>
       <c r="D14">
-        <v>-0.01116686196873318</v>
+        <v>-0.007042472036421678</v>
       </c>
       <c r="E14">
-        <v>0.007062061443874782</v>
+        <v>0.008983482737875689</v>
       </c>
       <c r="F14">
-        <v>-0.04745952887633582</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02519695710008826</v>
+      </c>
+      <c r="G14">
+        <v>0.01005984096204433</v>
+      </c>
+      <c r="H14">
+        <v>0.00793026493486461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02835798783703566</v>
+        <v>-0.01397131760943526</v>
       </c>
       <c r="C16">
-        <v>0.01082530645480502</v>
+        <v>0.04076854843161878</v>
       </c>
       <c r="D16">
-        <v>-0.04013149478154639</v>
+        <v>0.0001351689843682846</v>
       </c>
       <c r="E16">
-        <v>0.02338211465293037</v>
+        <v>0.008723539563090863</v>
       </c>
       <c r="F16">
-        <v>-0.03367124739344864</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.00234501151286032</v>
+      </c>
+      <c r="G16">
+        <v>0.01194307484898928</v>
+      </c>
+      <c r="H16">
+        <v>0.02534214053947075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03393664241886927</v>
+        <v>-0.01743118150115948</v>
       </c>
       <c r="C19">
-        <v>0.00470903667714207</v>
+        <v>0.04417125641052137</v>
       </c>
       <c r="D19">
-        <v>-0.02569478210981184</v>
+        <v>-0.01161872650910759</v>
       </c>
       <c r="E19">
-        <v>0.02640049104077043</v>
+        <v>-0.01500330984742528</v>
       </c>
       <c r="F19">
-        <v>-0.09036773748762902</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02490157139436184</v>
+      </c>
+      <c r="G19">
+        <v>0.04242142374942681</v>
+      </c>
+      <c r="H19">
+        <v>0.04356750387235567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001388158988296819</v>
+        <v>0.0001013017129895889</v>
       </c>
       <c r="C20">
-        <v>-0.01232979899230398</v>
+        <v>0.02086857858876818</v>
       </c>
       <c r="D20">
-        <v>0.0009563448839615204</v>
+        <v>-0.01113686451817926</v>
       </c>
       <c r="E20">
-        <v>0.0003688449388451641</v>
+        <v>-0.008305626216612592</v>
       </c>
       <c r="F20">
-        <v>-0.04957022646627143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01846491691565067</v>
+      </c>
+      <c r="G20">
+        <v>0.02160183552810929</v>
+      </c>
+      <c r="H20">
+        <v>0.01953461838773429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03219685844769141</v>
+        <v>-0.002493716232501936</v>
       </c>
       <c r="C21">
-        <v>-0.008689032222914405</v>
+        <v>0.01976003804250535</v>
       </c>
       <c r="D21">
-        <v>-0.02662744490738655</v>
+        <v>-0.01421191112421073</v>
       </c>
       <c r="E21">
-        <v>0.004369926432371012</v>
+        <v>-0.01139137559973866</v>
       </c>
       <c r="F21">
-        <v>-0.03540116595203272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02913887091717591</v>
+      </c>
+      <c r="G21">
+        <v>0.007562250564078366</v>
+      </c>
+      <c r="H21">
+        <v>0.03134056673948534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02551934587300946</v>
+        <v>-0.008690147964941355</v>
       </c>
       <c r="C24">
-        <v>0.01138401081206572</v>
+        <v>0.03980241764345011</v>
       </c>
       <c r="D24">
-        <v>-0.02705276054169082</v>
+        <v>-0.004878893050930855</v>
       </c>
       <c r="E24">
-        <v>0.01908192712417406</v>
+        <v>0.01354988611458823</v>
       </c>
       <c r="F24">
-        <v>-0.02496203431280884</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.002777787457555661</v>
+      </c>
+      <c r="G24">
+        <v>0.009092379480853509</v>
+      </c>
+      <c r="H24">
+        <v>0.02951422269277611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03697899170033114</v>
+        <v>-0.02394497585512823</v>
       </c>
       <c r="C25">
-        <v>0.01271746562013592</v>
+        <v>0.04851440908715503</v>
       </c>
       <c r="D25">
-        <v>-0.03241265586004181</v>
+        <v>-0.008198998203540886</v>
       </c>
       <c r="E25">
-        <v>0.01170026817970017</v>
+        <v>0.01808175915307732</v>
       </c>
       <c r="F25">
-        <v>-0.03997783418359063</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.003635105826040054</v>
+      </c>
+      <c r="G25">
+        <v>0.01594018786346569</v>
+      </c>
+      <c r="H25">
+        <v>0.02489749607499574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01348943910147415</v>
+        <v>-0.002003477957933644</v>
       </c>
       <c r="C26">
-        <v>0.0007617091377277142</v>
+        <v>0.004521661744906405</v>
       </c>
       <c r="D26">
-        <v>-0.01676083961939889</v>
+        <v>-0.02316602095610417</v>
       </c>
       <c r="E26">
-        <v>-0.02426101012410489</v>
+        <v>0.001323819365981778</v>
       </c>
       <c r="F26">
-        <v>-0.0457038256321521</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01222604934383838</v>
+      </c>
+      <c r="G26">
+        <v>-0.00101995622517334</v>
+      </c>
+      <c r="H26">
+        <v>0.01162265103704293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01703891560208416</v>
+        <v>-0.005360439351086614</v>
       </c>
       <c r="C27">
-        <v>-0.003382050528147512</v>
+        <v>0.003197648404989956</v>
       </c>
       <c r="D27">
-        <v>0.007035700037594472</v>
+        <v>0.001332238754926156</v>
       </c>
       <c r="E27">
-        <v>0.01805770932054027</v>
+        <v>0.002203810343794735</v>
       </c>
       <c r="F27">
-        <v>-0.02077918863245596</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.01218180180517634</v>
+      </c>
+      <c r="G27">
+        <v>0.006537039033635831</v>
+      </c>
+      <c r="H27">
+        <v>-0.005625251289911741</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.09477540038330952</v>
+        <v>-0.1800363832795193</v>
       </c>
       <c r="C28">
-        <v>0.02934857385494098</v>
+        <v>-0.1875121631761209</v>
       </c>
       <c r="D28">
-        <v>0.2143955461193661</v>
+        <v>0.01716955868099077</v>
       </c>
       <c r="E28">
-        <v>-0.1112215164017937</v>
+        <v>-0.02595186184968367</v>
       </c>
       <c r="F28">
-        <v>-0.003263047406809942</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.04178113296537839</v>
+      </c>
+      <c r="G28">
+        <v>-0.02814577396111793</v>
+      </c>
+      <c r="H28">
+        <v>0.0001599682530925447</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02545962317037983</v>
+        <v>-0.009516055222402529</v>
       </c>
       <c r="C29">
-        <v>-0.005937439275457715</v>
+        <v>0.01777229482993074</v>
       </c>
       <c r="D29">
-        <v>-0.01045813540462559</v>
+        <v>-0.005850726478107193</v>
       </c>
       <c r="E29">
-        <v>0.008272832121711076</v>
+        <v>0.007437698830852154</v>
       </c>
       <c r="F29">
-        <v>-0.04573683054934605</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02412382561244399</v>
+      </c>
+      <c r="G29">
+        <v>0.009651458876593173</v>
+      </c>
+      <c r="H29">
+        <v>0.0002563721555359939</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0404818899200008</v>
+        <v>-0.02523696770101358</v>
       </c>
       <c r="C30">
-        <v>0.05631124346192341</v>
+        <v>0.08352006847799323</v>
       </c>
       <c r="D30">
-        <v>-0.05570334055641168</v>
+        <v>-0.02399551703517548</v>
       </c>
       <c r="E30">
-        <v>0.002813392859340685</v>
+        <v>-0.004997210200833818</v>
       </c>
       <c r="F30">
-        <v>-0.08396941759036175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.02562341352684267</v>
+      </c>
+      <c r="G30">
+        <v>0.03719091684441306</v>
+      </c>
+      <c r="H30">
+        <v>0.04723918864954688</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04397784499198579</v>
+        <v>-0.02922538251416999</v>
       </c>
       <c r="C31">
-        <v>0.01365492057845435</v>
+        <v>0.02903772156825115</v>
       </c>
       <c r="D31">
-        <v>-0.02264202736316797</v>
+        <v>-0.001727045826698448</v>
       </c>
       <c r="E31">
-        <v>0.02073502985957304</v>
+        <v>0.01263189776559196</v>
       </c>
       <c r="F31">
-        <v>-0.03684042384109967</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01357529285989907</v>
+      </c>
+      <c r="G31">
+        <v>-0.005520459536792355</v>
+      </c>
+      <c r="H31">
+        <v>-0.00839394351889149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01970418122919417</v>
+        <v>-0.00694190011035768</v>
       </c>
       <c r="C32">
-        <v>-0.02733400825388335</v>
+        <v>0.02013203225485578</v>
       </c>
       <c r="D32">
-        <v>-0.02673846951542481</v>
+        <v>0.008545071318262105</v>
       </c>
       <c r="E32">
-        <v>0.01543291148051169</v>
+        <v>-0.0005429197035448475</v>
       </c>
       <c r="F32">
-        <v>-0.06367880370777204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.02998491666077579</v>
+      </c>
+      <c r="G32">
+        <v>0.06060494657766628</v>
+      </c>
+      <c r="H32">
+        <v>0.06202394163858437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03183171768414105</v>
+        <v>-0.01230039073924927</v>
       </c>
       <c r="C33">
-        <v>0.03018345219586687</v>
+        <v>0.04357903649289361</v>
       </c>
       <c r="D33">
-        <v>-0.04675568896195733</v>
+        <v>-0.01225259287321055</v>
       </c>
       <c r="E33">
-        <v>-0.001578297992563209</v>
+        <v>-0.009199806655259431</v>
       </c>
       <c r="F33">
-        <v>-0.05966969845298904</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.00135260084383381</v>
+      </c>
+      <c r="G33">
+        <v>-0.003592648942614293</v>
+      </c>
+      <c r="H33">
+        <v>0.03446448879198973</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03136978353097653</v>
+        <v>-0.02525214073114902</v>
       </c>
       <c r="C34">
-        <v>0.003618857999238765</v>
+        <v>0.0500664460915447</v>
       </c>
       <c r="D34">
-        <v>-0.03947061003086518</v>
+        <v>0.008158996054735914</v>
       </c>
       <c r="E34">
-        <v>0.02884417399709415</v>
+        <v>0.02520401043966258</v>
       </c>
       <c r="F34">
-        <v>-0.03393426713550142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.005269683293973239</v>
+      </c>
+      <c r="G34">
+        <v>0.01528796105876646</v>
+      </c>
+      <c r="H34">
+        <v>0.02908746695234861</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01835807509458288</v>
+        <v>-0.007681621374254721</v>
       </c>
       <c r="C36">
-        <v>-0.005883068941886277</v>
+        <v>0.003229614466845928</v>
       </c>
       <c r="D36">
-        <v>-0.00242755572087895</v>
+        <v>-0.01007883698884363</v>
       </c>
       <c r="E36">
-        <v>0.0005464485621832609</v>
+        <v>0.002930183770555397</v>
       </c>
       <c r="F36">
-        <v>-0.02877578175710745</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01656180670821143</v>
+      </c>
+      <c r="G36">
+        <v>-0.00130473298301179</v>
+      </c>
+      <c r="H36">
+        <v>0.006557241920658249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0154955817918283</v>
+        <v>-0.02393508735562954</v>
       </c>
       <c r="C38">
-        <v>0.008740498441924318</v>
+        <v>0.01954823533536566</v>
       </c>
       <c r="D38">
-        <v>-0.002848337363626632</v>
+        <v>0.01003206031356769</v>
       </c>
       <c r="E38">
-        <v>-0.02606035300375772</v>
+        <v>0.006218997021286002</v>
       </c>
       <c r="F38">
-        <v>-0.03926474671910467</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.005246133651152932</v>
+      </c>
+      <c r="G38">
+        <v>0.008450690201555748</v>
+      </c>
+      <c r="H38">
+        <v>0.01716935416105377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02274274019971335</v>
+        <v>-5.927307796945976e-05</v>
       </c>
       <c r="C39">
-        <v>0.008335574430025073</v>
+        <v>0.08411871008010467</v>
       </c>
       <c r="D39">
-        <v>-0.05713628868989016</v>
+        <v>-0.01082357383424574</v>
       </c>
       <c r="E39">
-        <v>0.01474337469444466</v>
+        <v>0.0110989693540215</v>
       </c>
       <c r="F39">
-        <v>-0.05616932032284651</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.009233540586566159</v>
+      </c>
+      <c r="G39">
+        <v>0.02001526070503398</v>
+      </c>
+      <c r="H39">
+        <v>0.05893522393645334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01542570363075861</v>
+        <v>-0.01684833036650767</v>
       </c>
       <c r="C40">
-        <v>0.03590545318144167</v>
+        <v>0.02424350992699027</v>
       </c>
       <c r="D40">
-        <v>-0.02074564738826613</v>
+        <v>-0.00917260016143776</v>
       </c>
       <c r="E40">
-        <v>0.02288067584810721</v>
+        <v>-0.002125367084255685</v>
       </c>
       <c r="F40">
-        <v>-0.03388769545340409</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02075423312162707</v>
+      </c>
+      <c r="G40">
+        <v>0.02254514706165272</v>
+      </c>
+      <c r="H40">
+        <v>0.03117415305181344</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.007624329959891942</v>
+        <v>-0.009488218593249107</v>
       </c>
       <c r="C41">
-        <v>-0.0007634577428794265</v>
+        <v>-0.009318463708503952</v>
       </c>
       <c r="D41">
-        <v>-0.0007670889944802592</v>
+        <v>-0.002584106317408586</v>
       </c>
       <c r="E41">
-        <v>-0.01460027981467648</v>
+        <v>0.003377456437023712</v>
       </c>
       <c r="F41">
-        <v>0.001504048733688295</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.006775248405883438</v>
+      </c>
+      <c r="G41">
+        <v>-0.01307160685292242</v>
+      </c>
+      <c r="H41">
+        <v>-0.004927213956797232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.234094255483027</v>
+        <v>-0.06781288468086692</v>
       </c>
       <c r="C42">
-        <v>0.199632289037566</v>
+        <v>0.1860586355605903</v>
       </c>
       <c r="D42">
-        <v>-0.4171559643222317</v>
+        <v>-0.1244100677057755</v>
       </c>
       <c r="E42">
-        <v>-0.6695243843043275</v>
+        <v>-0.1328934024955731</v>
       </c>
       <c r="F42">
-        <v>0.4768769059944259</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1330733346608827</v>
+      </c>
+      <c r="G42">
+        <v>-0.92861712197188</v>
+      </c>
+      <c r="H42">
+        <v>0.1613861873690209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.009198163278354408</v>
+        <v>-0.01157374409260927</v>
       </c>
       <c r="C43">
-        <v>0.002677887944226495</v>
+        <v>-0.004400639441100907</v>
       </c>
       <c r="D43">
-        <v>-0.006970944813312723</v>
+        <v>-0.003156966263809198</v>
       </c>
       <c r="E43">
-        <v>-0.007086207868870849</v>
+        <v>-0.001782225846410515</v>
       </c>
       <c r="F43">
-        <v>-0.02787298866045955</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.004780234784194582</v>
+      </c>
+      <c r="G43">
+        <v>-0.006665362545772465</v>
+      </c>
+      <c r="H43">
+        <v>0.003198946892014196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02135389985283706</v>
+        <v>-0.003819981858586401</v>
       </c>
       <c r="C44">
-        <v>-0.01407226298808579</v>
+        <v>0.03873132661827361</v>
       </c>
       <c r="D44">
-        <v>-0.02041007298886775</v>
+        <v>-0.005256522133252925</v>
       </c>
       <c r="E44">
-        <v>-0.02425246809861711</v>
+        <v>-0.006171623753108683</v>
       </c>
       <c r="F44">
-        <v>-0.07897415253467711</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02807605334708168</v>
+      </c>
+      <c r="G44">
+        <v>0.003608548801878021</v>
+      </c>
+      <c r="H44">
+        <v>0.05094786171959727</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0190645100343813</v>
+        <v>-0.000362284267029737</v>
       </c>
       <c r="C46">
-        <v>0.002778641410618037</v>
+        <v>0.01074540796218598</v>
       </c>
       <c r="D46">
-        <v>-0.03900037414438013</v>
+        <v>-0.01095468148349537</v>
       </c>
       <c r="E46">
-        <v>0.01021822770275328</v>
+        <v>-0.001009599970026173</v>
       </c>
       <c r="F46">
-        <v>-0.07570666026243052</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01454512528015866</v>
+      </c>
+      <c r="G46">
+        <v>0.004283328789965539</v>
+      </c>
+      <c r="H46">
+        <v>0.004220017062055875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07092646278477699</v>
+        <v>-0.04951242818297905</v>
       </c>
       <c r="C47">
-        <v>0.02684871554216638</v>
+        <v>0.06298439092193622</v>
       </c>
       <c r="D47">
-        <v>-0.01940998805435173</v>
+        <v>0.007239492527379884</v>
       </c>
       <c r="E47">
-        <v>0.03299085546453396</v>
+        <v>0.0159065303136584</v>
       </c>
       <c r="F47">
-        <v>-0.008994759083581097</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01443855419358464</v>
+      </c>
+      <c r="G47">
+        <v>-0.01108115411231132</v>
+      </c>
+      <c r="H47">
+        <v>-0.04340787868736491</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02157884408367071</v>
+        <v>-0.009592520702340812</v>
       </c>
       <c r="C48">
-        <v>0.00565662345541672</v>
+        <v>0.01370835025286419</v>
       </c>
       <c r="D48">
-        <v>-0.01290300223407833</v>
+        <v>-0.0007910656266243361</v>
       </c>
       <c r="E48">
-        <v>0.002592800874613048</v>
+        <v>0.003314131742496688</v>
       </c>
       <c r="F48">
-        <v>-0.02978506544147074</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.009803362969782231</v>
+      </c>
+      <c r="G48">
+        <v>0.0008299249385691744</v>
+      </c>
+      <c r="H48">
+        <v>0.008728846205920609</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07821127423877167</v>
+        <v>-0.05445589068227867</v>
       </c>
       <c r="C50">
-        <v>0.002307617154572212</v>
+        <v>0.05969741303840282</v>
       </c>
       <c r="D50">
-        <v>-0.04390715128131562</v>
+        <v>0.006084649922007078</v>
       </c>
       <c r="E50">
-        <v>0.02633713895808592</v>
+        <v>0.01800665228410449</v>
       </c>
       <c r="F50">
-        <v>-0.01957552649320903</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.03427601772050804</v>
+      </c>
+      <c r="G50">
+        <v>-0.01108256253928445</v>
+      </c>
+      <c r="H50">
+        <v>-0.03057635141399171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0187875743703829</v>
+        <v>-0.008118726630407382</v>
       </c>
       <c r="C51">
-        <v>-0.002572521556178528</v>
+        <v>0.01423718011194111</v>
       </c>
       <c r="D51">
-        <v>0.008200794643129866</v>
+        <v>-0.006409275546141986</v>
       </c>
       <c r="E51">
-        <v>-0.02104774738785037</v>
+        <v>0.007237792764556195</v>
       </c>
       <c r="F51">
-        <v>-0.0899012538300181</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01841924886083186</v>
+      </c>
+      <c r="G51">
+        <v>0.008176993321937401</v>
+      </c>
+      <c r="H51">
+        <v>0.03393254971445905</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09298123961629351</v>
+        <v>-0.06792597673032795</v>
       </c>
       <c r="C53">
-        <v>0.02993786070080216</v>
+        <v>0.09440393208832977</v>
       </c>
       <c r="D53">
-        <v>-0.04387659533303968</v>
+        <v>0.007993831868568144</v>
       </c>
       <c r="E53">
-        <v>0.06971725551500636</v>
+        <v>0.04203715336427762</v>
       </c>
       <c r="F53">
-        <v>0.01953519600703069</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.007360619440365083</v>
+      </c>
+      <c r="G53">
+        <v>-0.01128840390160286</v>
+      </c>
+      <c r="H53">
+        <v>-0.05046683274841405</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02886972659283617</v>
+        <v>-0.01963503203520582</v>
       </c>
       <c r="C54">
-        <v>-0.004195060814102649</v>
+        <v>-0.0002696902103279245</v>
       </c>
       <c r="D54">
-        <v>0.005128265062315488</v>
+        <v>0.00552424361267739</v>
       </c>
       <c r="E54">
-        <v>0.009302945338635639</v>
+        <v>-0.001921663942907573</v>
       </c>
       <c r="F54">
-        <v>-0.03175571186987296</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02525123243648717</v>
+      </c>
+      <c r="G54">
+        <v>0.005147651008474595</v>
+      </c>
+      <c r="H54">
+        <v>-0.0007146688316992413</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07968990336434194</v>
+        <v>-0.04956836347028058</v>
       </c>
       <c r="C55">
-        <v>0.02434196063203627</v>
+        <v>0.08621601417834542</v>
       </c>
       <c r="D55">
-        <v>-0.06205968255829399</v>
+        <v>0.006151507059185201</v>
       </c>
       <c r="E55">
-        <v>0.04573226490541864</v>
+        <v>0.03121157506396965</v>
       </c>
       <c r="F55">
-        <v>0.02126570100974387</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01000040884917351</v>
+      </c>
+      <c r="G55">
+        <v>-0.01740379936065731</v>
+      </c>
+      <c r="H55">
+        <v>-0.04683166762995071</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1253312594570253</v>
+        <v>-0.1055859397310694</v>
       </c>
       <c r="C56">
-        <v>0.05026633595066068</v>
+        <v>0.1287530867729895</v>
       </c>
       <c r="D56">
-        <v>-0.04538877191446818</v>
+        <v>0.01775659839289455</v>
       </c>
       <c r="E56">
-        <v>0.09642217594522912</v>
+        <v>0.04614756613877742</v>
       </c>
       <c r="F56">
-        <v>0.04893010321122136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.004598322813417712</v>
+      </c>
+      <c r="G56">
+        <v>-0.006268671496593049</v>
+      </c>
+      <c r="H56">
+        <v>-0.09029622022442586</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04017185131671171</v>
+        <v>-0.0198525955424183</v>
       </c>
       <c r="C57">
-        <v>0.01627306486381271</v>
+        <v>0.02679814957994458</v>
       </c>
       <c r="D57">
-        <v>-0.02092558819500938</v>
+        <v>-0.02319025386281231</v>
       </c>
       <c r="E57">
-        <v>-0.04426500950923937</v>
+        <v>-0.02797048432567716</v>
       </c>
       <c r="F57">
-        <v>-0.04650803995055035</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.02114701547160308</v>
+      </c>
+      <c r="G57">
+        <v>0.01302803540758072</v>
+      </c>
+      <c r="H57">
+        <v>0.05314869806069894</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1514053030618434</v>
+        <v>-0.06961913897066124</v>
       </c>
       <c r="C58">
-        <v>0.1792307559350717</v>
+        <v>0.2258739552629089</v>
       </c>
       <c r="D58">
-        <v>-0.2210134284200405</v>
+        <v>-0.01668492836626702</v>
       </c>
       <c r="E58">
-        <v>-0.1995826751442213</v>
+        <v>-0.9249615270064636</v>
       </c>
       <c r="F58">
-        <v>-0.5802507149651709</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.1713160966052453</v>
+      </c>
+      <c r="G58">
+        <v>0.1434836320571868</v>
+      </c>
+      <c r="H58">
+        <v>-0.1076299725523514</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08376587625947828</v>
+        <v>-0.2009759141135872</v>
       </c>
       <c r="C59">
-        <v>0.05142689905097737</v>
+        <v>-0.1706305785122853</v>
       </c>
       <c r="D59">
-        <v>0.1820358274696896</v>
+        <v>0.02506132386438319</v>
       </c>
       <c r="E59">
-        <v>-0.07039819291772875</v>
+        <v>-0.02655813612215647</v>
       </c>
       <c r="F59">
-        <v>-0.04966758502352276</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01294072939794498</v>
+      </c>
+      <c r="G59">
+        <v>0.00245139317099825</v>
+      </c>
+      <c r="H59">
+        <v>0.01171433837411539</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1545661733004677</v>
+        <v>-0.2467761900493116</v>
       </c>
       <c r="C60">
-        <v>0.1014779344398764</v>
+        <v>0.1024433622564397</v>
       </c>
       <c r="D60">
-        <v>0.003977865858541691</v>
+        <v>0.00791187293724575</v>
       </c>
       <c r="E60">
-        <v>-0.04721185028116458</v>
+        <v>0.03463127513774976</v>
       </c>
       <c r="F60">
-        <v>-0.1372994442947797</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1293138493618926</v>
+      </c>
+      <c r="G60">
+        <v>0.150454188428285</v>
+      </c>
+      <c r="H60">
+        <v>0.3752368184140688</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02608925705972852</v>
+        <v>-0.009649809036887443</v>
       </c>
       <c r="C61">
-        <v>0.009338127988849415</v>
+        <v>0.06427072791424623</v>
       </c>
       <c r="D61">
-        <v>-0.04431372715832546</v>
+        <v>-0.003563030180759884</v>
       </c>
       <c r="E61">
-        <v>0.009940394218977149</v>
+        <v>0.01177414704742382</v>
       </c>
       <c r="F61">
-        <v>-0.02936008923699843</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.0003677280942235035</v>
+      </c>
+      <c r="G61">
+        <v>0.02108713184893602</v>
+      </c>
+      <c r="H61">
+        <v>0.04312676756750664</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01667190144391233</v>
+        <v>-0.005535640086483507</v>
       </c>
       <c r="C63">
-        <v>-0.0004795246787737238</v>
+        <v>0.02015257904242848</v>
       </c>
       <c r="D63">
-        <v>-0.01862913419246815</v>
+        <v>-0.006784534330869747</v>
       </c>
       <c r="E63">
-        <v>0.004423118597525887</v>
+        <v>0.01669127589043941</v>
       </c>
       <c r="F63">
-        <v>-0.007170126533715776</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.01382091390101827</v>
+      </c>
+      <c r="G63">
+        <v>0.003068834527578923</v>
+      </c>
+      <c r="H63">
+        <v>0.003157630104593524</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04291420216983675</v>
+        <v>-0.03526386943409127</v>
       </c>
       <c r="C64">
-        <v>0.001498292014063917</v>
+        <v>0.042088015264024</v>
       </c>
       <c r="D64">
-        <v>-0.02665077703313362</v>
+        <v>-0.001730815940747193</v>
       </c>
       <c r="E64">
-        <v>0.01405191834549509</v>
+        <v>0.02435848188201976</v>
       </c>
       <c r="F64">
-        <v>-0.03161492532494706</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.004784386748039717</v>
+      </c>
+      <c r="G64">
+        <v>-0.004868628524189014</v>
+      </c>
+      <c r="H64">
+        <v>0.02513684256455882</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04342262365688701</v>
+        <v>-0.04617163433808437</v>
       </c>
       <c r="C65">
-        <v>0.01062503703090049</v>
+        <v>0.08397020808943056</v>
       </c>
       <c r="D65">
-        <v>-0.03990707426265951</v>
+        <v>-0.01278004545900007</v>
       </c>
       <c r="E65">
-        <v>0.0312963324932162</v>
+        <v>0.03201218085331713</v>
       </c>
       <c r="F65">
-        <v>-0.03064302430933416</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.01735839446179872</v>
+      </c>
+      <c r="G65">
+        <v>0.04499337688250586</v>
+      </c>
+      <c r="H65">
+        <v>0.05052545497746</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03703213640862093</v>
+        <v>-0.01060243016337897</v>
       </c>
       <c r="C66">
-        <v>0.02331413031577762</v>
+        <v>0.1166047695587155</v>
       </c>
       <c r="D66">
-        <v>-0.06333956285628187</v>
+        <v>-0.008496233904305962</v>
       </c>
       <c r="E66">
-        <v>0.05046949998991818</v>
+        <v>0.01453060150899217</v>
       </c>
       <c r="F66">
-        <v>-0.05334645861317645</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.01764273841241218</v>
+      </c>
+      <c r="G66">
+        <v>0.04422156444952654</v>
+      </c>
+      <c r="H66">
+        <v>0.05828053771320988</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02813373150880637</v>
+        <v>-0.04752148858763151</v>
       </c>
       <c r="C67">
-        <v>0.0162511761042124</v>
+        <v>0.0288446400590455</v>
       </c>
       <c r="D67">
-        <v>0.005040644064947635</v>
+        <v>0.009638458049675202</v>
       </c>
       <c r="E67">
-        <v>-0.01806401642798942</v>
+        <v>0.01310608729759706</v>
       </c>
       <c r="F67">
-        <v>-0.02606951427481984</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.00146445462766382</v>
+      </c>
+      <c r="G67">
+        <v>0.01436214789370211</v>
+      </c>
+      <c r="H67">
+        <v>0.01366661033828009</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.09321387085063339</v>
+        <v>-0.1985017479885512</v>
       </c>
       <c r="C68">
-        <v>0.04286960812298639</v>
+        <v>-0.2125538845902635</v>
       </c>
       <c r="D68">
-        <v>0.2002150222493341</v>
+        <v>0.00615765282723882</v>
       </c>
       <c r="E68">
-        <v>-0.08733116307650463</v>
+        <v>-0.04145606125573466</v>
       </c>
       <c r="F68">
-        <v>-0.02783259609947404</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.03360881962641218</v>
+      </c>
+      <c r="G68">
+        <v>-0.03971116245763567</v>
+      </c>
+      <c r="H68">
+        <v>-0.02169328129386605</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06266248659538767</v>
+        <v>-0.05303350972249713</v>
       </c>
       <c r="C69">
-        <v>0.0260887085706776</v>
+        <v>0.06034217616251145</v>
       </c>
       <c r="D69">
-        <v>-0.01957364117795201</v>
+        <v>0.0120923369405814</v>
       </c>
       <c r="E69">
-        <v>0.0357577120621746</v>
+        <v>0.02877293211426563</v>
       </c>
       <c r="F69">
-        <v>-0.01973262512118547</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.002865248695901153</v>
+      </c>
+      <c r="G69">
+        <v>0.004440492560695794</v>
+      </c>
+      <c r="H69">
+        <v>-0.01843447454632394</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.09155334719469814</v>
+        <v>-0.1799406826328139</v>
       </c>
       <c r="C71">
-        <v>0.0472855827649994</v>
+        <v>-0.1650554373450275</v>
       </c>
       <c r="D71">
-        <v>0.1929749089353449</v>
+        <v>0.01204218328090909</v>
       </c>
       <c r="E71">
-        <v>-0.1261207605318472</v>
+        <v>-0.04434985364362688</v>
       </c>
       <c r="F71">
-        <v>-0.01727443152155185</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.0299682794647232</v>
+      </c>
+      <c r="G71">
+        <v>-0.04112020593542141</v>
+      </c>
+      <c r="H71">
+        <v>-0.002438457320939436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09578293646492204</v>
+        <v>-0.05665876187217792</v>
       </c>
       <c r="C72">
-        <v>0.04895640485985701</v>
+        <v>0.09945362266305556</v>
       </c>
       <c r="D72">
-        <v>-0.08670159043286982</v>
+        <v>0.01318545768069583</v>
       </c>
       <c r="E72">
-        <v>0.07240076669939108</v>
+        <v>0.03889476639762475</v>
       </c>
       <c r="F72">
-        <v>-0.1333866193210917</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.02904207387448969</v>
+      </c>
+      <c r="G72">
+        <v>0.0588723239030307</v>
+      </c>
+      <c r="H72">
+        <v>0.06044578924039274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1850750794731577</v>
+        <v>-0.3239709805691012</v>
       </c>
       <c r="C73">
-        <v>0.1680602451871098</v>
+        <v>0.1574216859255481</v>
       </c>
       <c r="D73">
-        <v>-0.02925200759673253</v>
+        <v>0.005851980522126989</v>
       </c>
       <c r="E73">
-        <v>-0.08340449896142589</v>
+        <v>0.02504961208974827</v>
       </c>
       <c r="F73">
-        <v>-0.146786329284454</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1925132984813564</v>
+      </c>
+      <c r="G73">
+        <v>0.1640886887778216</v>
+      </c>
+      <c r="H73">
+        <v>0.47697375818423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1217755734910995</v>
+        <v>-0.09470939087649817</v>
       </c>
       <c r="C74">
-        <v>0.05020711669138962</v>
+        <v>0.1308350859361995</v>
       </c>
       <c r="D74">
-        <v>-0.04811405511190276</v>
+        <v>0.01633299011481786</v>
       </c>
       <c r="E74">
-        <v>0.08160610337979153</v>
+        <v>0.043731712625088</v>
       </c>
       <c r="F74">
-        <v>0.0512981408938637</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.007545219272698708</v>
+      </c>
+      <c r="G74">
+        <v>-0.009714003352158431</v>
+      </c>
+      <c r="H74">
+        <v>-0.06815690269212842</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2091598351804325</v>
+        <v>-0.2095958328590372</v>
       </c>
       <c r="C75">
-        <v>0.1021599209404362</v>
+        <v>0.2181201590897338</v>
       </c>
       <c r="D75">
-        <v>-0.04592604448144102</v>
+        <v>0.03793984402011894</v>
       </c>
       <c r="E75">
-        <v>0.1957851699858305</v>
+        <v>0.0743257901358147</v>
       </c>
       <c r="F75">
-        <v>0.06519467177742612</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.02137501905354692</v>
+      </c>
+      <c r="G75">
+        <v>0.003077811474671691</v>
+      </c>
+      <c r="H75">
+        <v>-0.1897171595226154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2535558692866376</v>
+        <v>-0.1407333497534839</v>
       </c>
       <c r="C76">
-        <v>0.08043230162470578</v>
+        <v>0.1861245705993005</v>
       </c>
       <c r="D76">
-        <v>-0.05942620705285437</v>
+        <v>0.03096296970194571</v>
       </c>
       <c r="E76">
-        <v>0.2502994365820049</v>
+        <v>0.09255196920736315</v>
       </c>
       <c r="F76">
-        <v>0.1324166036947446</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.02519114619402762</v>
+      </c>
+      <c r="G76">
+        <v>-0.008542775158889925</v>
+      </c>
+      <c r="H76">
+        <v>-0.1568701132355874</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08923759136518616</v>
+        <v>-0.04336224394487915</v>
       </c>
       <c r="C77">
-        <v>0.04697925714629956</v>
+        <v>0.08472876130669996</v>
       </c>
       <c r="D77">
-        <v>-0.084430627716995</v>
+        <v>-0.01139736099301264</v>
       </c>
       <c r="E77">
-        <v>-0.06400320799012468</v>
+        <v>-0.02681842461751926</v>
       </c>
       <c r="F77">
-        <v>-0.07233274784792493</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.02053827922254389</v>
+      </c>
+      <c r="G77">
+        <v>-0.02103295353512227</v>
+      </c>
+      <c r="H77">
+        <v>0.007713806501420364</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04890755812907512</v>
+        <v>-0.02468197963404491</v>
       </c>
       <c r="C78">
-        <v>0.005740611930792229</v>
+        <v>0.07538541524268132</v>
       </c>
       <c r="D78">
-        <v>-0.09251390486956614</v>
+        <v>-0.004493817430247441</v>
       </c>
       <c r="E78">
-        <v>0.01448764704723991</v>
+        <v>-0.0001513405753724239</v>
       </c>
       <c r="F78">
-        <v>-0.09616637198605012</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.01018012051070228</v>
+      </c>
+      <c r="G78">
+        <v>0.02848122142972565</v>
+      </c>
+      <c r="H78">
+        <v>0.07048365381087036</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.4922077345906118</v>
+        <v>-0.08821316007906897</v>
       </c>
       <c r="C80">
-        <v>-0.8471278581884225</v>
+        <v>0.1135470564333205</v>
       </c>
       <c r="D80">
-        <v>-0.01913283221548938</v>
+        <v>-0.003156811315261452</v>
       </c>
       <c r="E80">
-        <v>-0.1011832460623052</v>
+        <v>0.1858286772522571</v>
       </c>
       <c r="F80">
-        <v>-0.02344998391344089</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.921051104343388</v>
+      </c>
+      <c r="G80">
+        <v>-0.09183785216515013</v>
+      </c>
+      <c r="H80">
+        <v>0.1821548721272433</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1682791928958451</v>
+        <v>-0.1237293130686345</v>
       </c>
       <c r="C81">
-        <v>0.06832967090682392</v>
+        <v>0.1399427976031482</v>
       </c>
       <c r="D81">
-        <v>-0.02802518988900343</v>
+        <v>0.02183666915817713</v>
       </c>
       <c r="E81">
-        <v>0.1573455015645522</v>
+        <v>0.04904956546281523</v>
       </c>
       <c r="F81">
-        <v>0.04190692590683308</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.009673806648812936</v>
+      </c>
+      <c r="G81">
+        <v>0.000490383475676517</v>
+      </c>
+      <c r="H81">
+        <v>-0.1140642587644821</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.0048520022537439</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.003026666848645687</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.0007406173212649583</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01208059011835295</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.003665148004327466</v>
+      </c>
+      <c r="G82">
+        <v>0.001240264670175738</v>
+      </c>
+      <c r="H82">
+        <v>0.00158619943955332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03653391823387212</v>
+        <v>-0.0238214905446481</v>
       </c>
       <c r="C83">
-        <v>0.0196363357109042</v>
+        <v>0.01988011716414024</v>
       </c>
       <c r="D83">
-        <v>-0.01616460956442054</v>
+        <v>-0.003586637380945162</v>
       </c>
       <c r="E83">
-        <v>-0.03472443654858429</v>
+        <v>-0.01557774968930642</v>
       </c>
       <c r="F83">
-        <v>-0.04505536981166599</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.007718234070881453</v>
+      </c>
+      <c r="G83">
+        <v>0.006845865693051804</v>
+      </c>
+      <c r="H83">
+        <v>0.03863929223131703</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.228720196199529</v>
+        <v>-0.2012587594605637</v>
       </c>
       <c r="C85">
-        <v>0.1053346559286381</v>
+        <v>0.2190523305243437</v>
       </c>
       <c r="D85">
-        <v>-0.0598403111572685</v>
+        <v>0.02574547277680286</v>
       </c>
       <c r="E85">
-        <v>0.2220272131189894</v>
+        <v>0.1020155866285364</v>
       </c>
       <c r="F85">
-        <v>0.08796129091232317</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.04538428962535928</v>
+      </c>
+      <c r="G85">
+        <v>0.006466039687741187</v>
+      </c>
+      <c r="H85">
+        <v>-0.1388242134396129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.006988183225582463</v>
+        <v>-0.006261664842321262</v>
       </c>
       <c r="C86">
-        <v>0.0001533582269108046</v>
+        <v>0.03442766939866018</v>
       </c>
       <c r="D86">
-        <v>-0.04575754762119118</v>
+        <v>-0.007649704784308932</v>
       </c>
       <c r="E86">
-        <v>0.005097596805208019</v>
+        <v>-0.002985863649601504</v>
       </c>
       <c r="F86">
-        <v>-0.08718803738448942</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01284378048409426</v>
+      </c>
+      <c r="G86">
+        <v>0.001698849598189849</v>
+      </c>
+      <c r="H86">
+        <v>0.04810343646384763</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02957741551573924</v>
+        <v>-0.002531381017446316</v>
       </c>
       <c r="C87">
-        <v>0.007003346249632468</v>
+        <v>0.03910635252108943</v>
       </c>
       <c r="D87">
-        <v>-0.0360431864802941</v>
+        <v>-0.009526622547579406</v>
       </c>
       <c r="E87">
-        <v>-0.01359928740423152</v>
+        <v>-0.03800435835913349</v>
       </c>
       <c r="F87">
-        <v>-0.1000740052416652</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.02334975970782155</v>
+      </c>
+      <c r="G87">
+        <v>0.02477496015029739</v>
+      </c>
+      <c r="H87">
+        <v>0.0681898854825541</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.03378365263062452</v>
+        <v>-0.04227685725096651</v>
       </c>
       <c r="C88">
-        <v>0.004965346634072822</v>
+        <v>0.02319001951337555</v>
       </c>
       <c r="D88">
-        <v>0.004848003809440153</v>
+        <v>-0.01833316497961527</v>
       </c>
       <c r="E88">
-        <v>0.01229317376692932</v>
+        <v>0.009639452792016926</v>
       </c>
       <c r="F88">
-        <v>0.001181755369704047</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01802837406228203</v>
+      </c>
+      <c r="G88">
+        <v>0.009694070143641955</v>
+      </c>
+      <c r="H88">
+        <v>-0.01281873830080643</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1504004371992998</v>
+        <v>-0.3106814172730629</v>
       </c>
       <c r="C89">
-        <v>0.103551195215723</v>
+        <v>-0.3021027899112665</v>
       </c>
       <c r="D89">
-        <v>0.3556132110380212</v>
+        <v>0.02046495024206035</v>
       </c>
       <c r="E89">
-        <v>-0.1030895942315654</v>
+        <v>-0.0332337555305294</v>
       </c>
       <c r="F89">
-        <v>-0.04206895135619824</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.004944895370548317</v>
+      </c>
+      <c r="G89">
+        <v>-0.02911931156533278</v>
+      </c>
+      <c r="H89">
+        <v>-0.0291568772341834</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1131509776530496</v>
+        <v>-0.25658629326406</v>
       </c>
       <c r="C90">
-        <v>0.05239780900105885</v>
+        <v>-0.2734470349419305</v>
       </c>
       <c r="D90">
-        <v>0.3260939646891439</v>
+        <v>0.01958750932318586</v>
       </c>
       <c r="E90">
-        <v>-0.1103551740999808</v>
+        <v>-0.04231247129402246</v>
       </c>
       <c r="F90">
-        <v>0.02411702227035615</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.0365311246095641</v>
+      </c>
+      <c r="G90">
+        <v>-0.05457731237602938</v>
+      </c>
+      <c r="H90">
+        <v>-0.05602580912842544</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2584033602297002</v>
+        <v>-0.1862931155920494</v>
       </c>
       <c r="C91">
-        <v>0.131241169645706</v>
+        <v>0.1868561635274598</v>
       </c>
       <c r="D91">
-        <v>-0.07051529357015356</v>
+        <v>0.03385571315888494</v>
       </c>
       <c r="E91">
-        <v>0.2073335798306134</v>
+        <v>0.08096520247926764</v>
       </c>
       <c r="F91">
-        <v>0.178020823292544</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.01730496040821917</v>
+      </c>
+      <c r="G91">
+        <v>-0.03411867902445537</v>
+      </c>
+      <c r="H91">
+        <v>-0.1956911081476802</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1933095703631489</v>
+        <v>-0.2764667247394877</v>
       </c>
       <c r="C92">
-        <v>0.1062148174198295</v>
+        <v>-0.1913112182859147</v>
       </c>
       <c r="D92">
-        <v>0.3727793946105328</v>
+        <v>0.06297253951558024</v>
       </c>
       <c r="E92">
-        <v>-0.007906467801107908</v>
+        <v>-0.03830066105224657</v>
       </c>
       <c r="F92">
-        <v>0.09626399473078313</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.05012732952895433</v>
+      </c>
+      <c r="G92">
+        <v>-0.03173286383110966</v>
+      </c>
+      <c r="H92">
+        <v>-0.1532723155076727</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1334287556129382</v>
+        <v>-0.2961613321656343</v>
       </c>
       <c r="C93">
-        <v>0.113108995661633</v>
+        <v>-0.2577964292585662</v>
       </c>
       <c r="D93">
-        <v>0.3598356289347406</v>
+        <v>0.02878248499882602</v>
       </c>
       <c r="E93">
-        <v>-0.1674982973981598</v>
+        <v>-0.05562418639968141</v>
       </c>
       <c r="F93">
-        <v>0.04527820171596317</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.006680409221664308</v>
+      </c>
+      <c r="G93">
+        <v>-0.04787845118122477</v>
+      </c>
+      <c r="H93">
+        <v>8.993777655736263e-05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2713451284610811</v>
+        <v>-0.2383933256989254</v>
       </c>
       <c r="C94">
-        <v>0.1582788983100158</v>
+        <v>0.2314068244452325</v>
       </c>
       <c r="D94">
-        <v>-0.01672962646028728</v>
+        <v>0.02426446542735351</v>
       </c>
       <c r="E94">
-        <v>0.2913409782442973</v>
+        <v>0.1119830792443484</v>
       </c>
       <c r="F94">
-        <v>0.05677001450494838</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.06739281749535882</v>
+      </c>
+      <c r="G94">
+        <v>0.04641047215705502</v>
+      </c>
+      <c r="H94">
+        <v>-0.4488943761759369</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.04439160631704282</v>
+        <v>-0.05214691473534493</v>
       </c>
       <c r="C95">
-        <v>0.1051244992475266</v>
+        <v>0.1066631869708906</v>
       </c>
       <c r="D95">
-        <v>-0.0323798624466347</v>
+        <v>0.01168082108438273</v>
       </c>
       <c r="E95">
-        <v>0.02375352528572394</v>
+        <v>-0.03402196882771077</v>
       </c>
       <c r="F95">
-        <v>-0.05575405890715726</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.08345841038621871</v>
+      </c>
+      <c r="G95">
+        <v>0.0155235597672655</v>
+      </c>
+      <c r="H95">
+        <v>0.03439157587668625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1564241763520223</v>
+        <v>-0.1898968054654035</v>
       </c>
       <c r="C98">
-        <v>0.1121650692606068</v>
+        <v>0.07017736908461668</v>
       </c>
       <c r="D98">
-        <v>0.02057715339552482</v>
+        <v>0.02903777696189881</v>
       </c>
       <c r="E98">
-        <v>-0.1052250563324665</v>
+        <v>-0.02383045310159967</v>
       </c>
       <c r="F98">
-        <v>-0.1311048989187976</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.07711723476326457</v>
+      </c>
+      <c r="G98">
+        <v>0.06327898757621604</v>
+      </c>
+      <c r="H98">
+        <v>0.309001586970379</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.009957376783411439</v>
+        <v>-0.003445320377367375</v>
       </c>
       <c r="C101">
-        <v>-0.006335611169237046</v>
+        <v>0.01923401212196788</v>
       </c>
       <c r="D101">
-        <v>-0.03492566923440714</v>
+        <v>-0.006893347626446027</v>
       </c>
       <c r="E101">
-        <v>-0.02155744340854946</v>
+        <v>-0.03076691895400005</v>
       </c>
       <c r="F101">
-        <v>-0.1838586726692247</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03401415398312829</v>
+      </c>
+      <c r="G101">
+        <v>0.02721680488429642</v>
+      </c>
+      <c r="H101">
+        <v>-0.002086100512624792</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1089481760950738</v>
+        <v>-0.1029815729394121</v>
       </c>
       <c r="C102">
-        <v>0.04980012813158377</v>
+        <v>0.1060493514710583</v>
       </c>
       <c r="D102">
-        <v>-0.03386751537616629</v>
+        <v>0.005754823757473345</v>
       </c>
       <c r="E102">
-        <v>0.1101148240602553</v>
+        <v>0.05357107682424296</v>
       </c>
       <c r="F102">
-        <v>0.06871210405892533</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.02069595736009669</v>
+      </c>
+      <c r="G102">
+        <v>0.004252899346048591</v>
+      </c>
+      <c r="H102">
+        <v>-0.07321616948851961</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03937879084910437</v>
+        <v>-0.009257848201264117</v>
       </c>
       <c r="C103">
-        <v>0.001033122555854955</v>
+        <v>0.01371614036345101</v>
       </c>
       <c r="D103">
-        <v>-0.01599357331963649</v>
+        <v>0.0006358946743776348</v>
       </c>
       <c r="E103">
-        <v>0.03810731017080219</v>
+        <v>0.003915444367940626</v>
       </c>
       <c r="F103">
-        <v>-0.009248945711463593</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01621787490158831</v>
+      </c>
+      <c r="G103">
+        <v>6.693703847353214e-06</v>
+      </c>
+      <c r="H103">
+        <v>-0.01080397521120724</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.0869558387956627</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.04006786043171487</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9813970681889408</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04341084147938943</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.004852254740278812</v>
+      </c>
+      <c r="G104">
+        <v>0.1068157240965386</v>
+      </c>
+      <c r="H104">
+        <v>-0.06797911741688444</v>
       </c>
     </row>
   </sheetData>
